--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_OUVP_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_OUVP_19DX101.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C07A2D1-DA15-42A1-9B43-D1ACC1EF6198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-132" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-132" windowWidth="30936" windowHeight="16896"/>
   </bookViews>
   <sheets>
-    <sheet name="CJ20" sheetId="1" r:id="rId1"/>
+    <sheet name="OUVP" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,11 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_OUVP_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_OUVP_19DX101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-132" windowWidth="30936" windowHeight="16896"/>
+    <workbookView xWindow="33750" yWindow="2910" windowWidth="23040" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="OUVP" sheetId="1" r:id="rId1"/>
@@ -93,11 +93,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1P+N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3P+N</t>
+    <t>2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,15 +432,15 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -492,7 +492,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -518,7 +518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -544,7 +544,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -570,7 +570,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -596,7 +596,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -622,7 +622,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -648,7 +648,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -659,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
@@ -674,7 +674,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -685,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="2">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -700,7 +700,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -726,7 +726,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>

--- a/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_OUVP_19DX101.xlsx
+++ b/AutoLoader/Contents/Support/PowerDistributionSystem/LV_AC_OUVP_19DX101.xlsx
@@ -432,7 +432,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
